--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -31,10 +31,10 @@
     <t>Jones, Bernard</t>
   </si>
   <si>
-    <t>Anjali Abshire</t>
+    <t>Roth, Lauren</t>
   </si>
   <si>
-    <t>BVAAABSHIRE</t>
+    <t>DSUSER</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -139,19 +139,6 @@
     </border>
     <border>
       <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -236,18 +223,29 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -265,7 +263,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -277,13 +275,22 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -294,11 +301,24 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -306,111 +326,70 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </left>
-      <right>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -419,7 +398,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -432,109 +411,100 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -709,9 +679,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -791,7 +761,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -819,10 +789,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1078,9 +1048,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1368,7 +1338,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1396,10 +1366,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1674,150 +1644,150 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s" s="9">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="11">
+      <c r="D2" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" ht="35" customHeight="1">
-      <c r="A3" t="s" s="15">
+      <c r="A3" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="16">
+      <c r="B3" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>123</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>43467</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" t="s" s="22">
+      <c r="A4" s="19"/>
+      <c r="B4" t="s" s="20">
         <v>5</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>123</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>43498</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="14"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" t="s" s="22">
+      <c r="A5" s="19"/>
+      <c r="B5" t="s" s="20">
         <v>5</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>123</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>43498</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" t="s" s="22">
+      <c r="A6" s="19"/>
+      <c r="B6" t="s" s="20">
         <v>5</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>123</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>43526</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="14"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" t="s" s="28">
+      <c r="A7" s="24"/>
+      <c r="B7" t="s" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="26">
         <v>123</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <v>43557</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="14"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" t="s" s="32">
+      <c r="A8" s="28"/>
+      <c r="B8" t="s" s="29">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="33">
+      <c r="C8" t="s" s="30">
         <v>7</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31">
         <v>43204</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="14"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" t="s" s="36">
+      <c r="A9" s="32"/>
+      <c r="B9" t="s" s="33">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="37">
+      <c r="C9" t="s" s="34">
         <v>7</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="35">
         <v>43205</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="14"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Judge Non-Availability Dates</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Judge Name</t>
   </si>
   <si>
-    <t>CSS ID</t>
+    <t>CSS Id</t>
   </si>
   <si>
     <t>Date</t>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Jones, Bernard</t>
+  </si>
+  <si>
+    <t>BVAJONESB</t>
   </si>
   <si>
     <t>Roth, Lauren</t>
@@ -109,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -139,6 +142,19 @@
     </border>
     <border>
       <left/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -223,6 +239,148 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="8"/>
@@ -246,36 +404,6 @@
     <border>
       <left style="thin">
         <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
       </left>
       <right/>
       <top/>
@@ -283,110 +411,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -398,7 +429,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -411,100 +442,109 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -679,9 +719,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -761,7 +801,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -789,10 +829,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1048,9 +1088,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
+              <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1338,7 +1378,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1366,10 +1406,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1624,170 +1664,170 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="10.8672" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5781" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.8672" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7344" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.8672" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7344" style="1" customWidth="1"/>
-    <col min="10" max="256" width="10.7344" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1">
+    <row r="1" ht="47.1" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s" s="8">
+    <row r="2" ht="32.25" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s" s="9">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="6"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
-    <row r="3" ht="35" customHeight="1">
-      <c r="A3" t="s" s="13">
+    <row r="3" ht="35.1" customHeight="1">
+      <c r="A3" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" t="s" s="16">
         <v>5</v>
       </c>
-      <c r="C3" s="15">
-        <v>123</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="C3" t="s" s="17">
+        <v>6</v>
+      </c>
+      <c r="D3" s="18">
         <v>43467</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="6"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" t="s" s="20">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="C4" s="21">
-        <v>123</v>
-      </c>
-      <c r="D4" s="22">
+      <c r="C4" t="s" s="23">
+        <v>6</v>
+      </c>
+      <c r="D4" s="24">
         <v>43498</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" t="s" s="20">
+      <c r="A5" s="21"/>
+      <c r="B5" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="C5" s="21">
-        <v>123</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="C5" t="s" s="23">
+        <v>6</v>
+      </c>
+      <c r="D5" s="24">
         <v>43498</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" t="s" s="20">
+      <c r="A6" s="21"/>
+      <c r="B6" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="21">
-        <v>123</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" t="s" s="23">
+        <v>6</v>
+      </c>
+      <c r="D6" s="24">
         <v>43526</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" t="s" s="25">
+      <c r="A7" s="27"/>
+      <c r="B7" t="s" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="26">
-        <v>123</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="C7" t="s" s="29">
+        <v>6</v>
+      </c>
+      <c r="D7" s="30">
         <v>43557</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="30">
+      <c r="A8" s="31"/>
+      <c r="B8" t="s" s="32">
         <v>7</v>
       </c>
-      <c r="D8" s="31">
+      <c r="C8" t="s" s="33">
+        <v>8</v>
+      </c>
+      <c r="D8" s="34">
         <v>43204</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" t="s" s="33">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s" s="34">
+      <c r="A9" s="35"/>
+      <c r="B9" t="s" s="36">
         <v>7</v>
       </c>
-      <c r="D9" s="35">
+      <c r="C9" t="s" s="37">
+        <v>8</v>
+      </c>
+      <c r="D9" s="38">
         <v>43205</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Judge Non-Availability Dates</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Judge Name</t>
   </si>
   <si>
-    <t>CSS ID</t>
+    <t>CSS Id</t>
   </si>
   <si>
     <t>Date</t>
@@ -31,10 +31,13 @@
     <t>Jones, Bernard</t>
   </si>
   <si>
-    <t>Anjali Abshire</t>
+    <t>BVAJONESB</t>
   </si>
   <si>
-    <t>BVAAABSHIRE</t>
+    <t>Roth, Lauren</t>
+  </si>
+  <si>
+    <t>DSUSER</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -378,39 +381,46 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -448,13 +458,13 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -471,7 +481,7 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -489,7 +499,7 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -507,7 +517,7 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -520,7 +530,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -528,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1654,21 +1664,21 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="10.8672" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7344" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5781" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.8672" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7344" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7344" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.8672" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7344" style="1" customWidth="1"/>
-    <col min="10" max="256" width="10.7344" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1">
+    <row r="1" ht="47.1" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1681,7 +1691,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
+    <row r="2" ht="32.25" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" t="s" s="9">
         <v>1</v>
@@ -1698,15 +1708,15 @@
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" ht="35" customHeight="1">
+    <row r="3" ht="35.1" customHeight="1">
       <c r="A3" t="s" s="15">
         <v>4</v>
       </c>
       <c r="B3" t="s" s="16">
         <v>5</v>
       </c>
-      <c r="C3" s="17">
-        <v>123</v>
+      <c r="C3" t="s" s="17">
+        <v>6</v>
       </c>
       <c r="D3" s="18">
         <v>43467</v>
@@ -1722,8 +1732,8 @@
       <c r="B4" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="C4" s="23">
-        <v>123</v>
+      <c r="C4" t="s" s="23">
+        <v>6</v>
       </c>
       <c r="D4" s="24">
         <v>43498</v>
@@ -1739,8 +1749,8 @@
       <c r="B5" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="C5" s="23">
-        <v>123</v>
+      <c r="C5" t="s" s="23">
+        <v>6</v>
       </c>
       <c r="D5" s="24">
         <v>43498</v>
@@ -1756,8 +1766,8 @@
       <c r="B6" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="C6" s="23">
-        <v>123</v>
+      <c r="C6" t="s" s="23">
+        <v>6</v>
       </c>
       <c r="D6" s="24">
         <v>43526</v>
@@ -1773,8 +1783,8 @@
       <c r="B7" t="s" s="28">
         <v>5</v>
       </c>
-      <c r="C7" s="29">
-        <v>123</v>
+      <c r="C7" t="s" s="29">
+        <v>6</v>
       </c>
       <c r="D7" s="30">
         <v>43557</v>
@@ -1788,10 +1798,10 @@
     <row r="8" ht="17" customHeight="1">
       <c r="A8" s="31"/>
       <c r="B8" t="s" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="34">
         <v>43204</v>
@@ -1805,10 +1815,10 @@
     <row r="9" ht="17" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" t="s" s="36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s" s="37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="38">
         <v>43205</v>

--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -19,7 +19,7 @@
     <t>Judge Name</t>
   </si>
   <si>
-    <t>CSS Id</t>
+    <t>VLJ #</t>
   </si>
   <si>
     <t>Date</t>
@@ -31,13 +31,13 @@
     <t>Jones, Bernard</t>
   </si>
   <si>
-    <t>BVAJONESB</t>
+    <t>123</t>
   </si>
   <si>
-    <t>Roth, Lauren</t>
+    <t>Huels, Stuart</t>
   </si>
   <si>
-    <t>DSUSER</t>
+    <t>860</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -142,19 +142,6 @@
     </border>
     <border>
       <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -239,18 +226,29 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -268,7 +266,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -280,130 +278,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top/>
@@ -411,10 +286,108 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -442,109 +415,109 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -719,9 +692,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -801,7 +774,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -829,10 +802,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1088,9 +1061,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1378,7 +1351,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1406,10 +1379,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1660,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1684,150 +1657,161 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s" s="9">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="11">
+      <c r="D2" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" ht="35.1" customHeight="1">
-      <c r="A3" t="s" s="15">
+      <c r="A3" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="16">
+      <c r="B3" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="17">
+      <c r="C3" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>43467</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" t="s" s="22">
+      <c r="A4" s="19"/>
+      <c r="B4" t="s" s="20">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="23">
+      <c r="C4" t="s" s="21">
         <v>6</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>43498</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="14"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" t="s" s="22">
+      <c r="A5" s="19"/>
+      <c r="B5" t="s" s="20">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="23">
+      <c r="C5" t="s" s="21">
         <v>6</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>43498</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="14"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" t="s" s="22">
+      <c r="A6" s="19"/>
+      <c r="B6" t="s" s="20">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="23">
+      <c r="C6" t="s" s="21">
         <v>6</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>43526</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="14"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" t="s" s="28">
+      <c r="A7" s="24"/>
+      <c r="B7" t="s" s="25">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="29">
+      <c r="C7" t="s" s="26">
         <v>6</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <v>43557</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="14"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" t="s" s="32">
+      <c r="A8" s="28"/>
+      <c r="B8" t="s" s="29">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="33">
+      <c r="C8" t="s" s="30">
         <v>8</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31">
         <v>43204</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="14"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" t="s" s="36">
+      <c r="A9" s="32"/>
+      <c r="B9" t="s" s="33">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="37">
+      <c r="C9" t="s" s="34">
         <v>8</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="35">
         <v>43205</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="14"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Judge Non-Availability Dates</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>860</t>
+  </si>
+  <si>
+    <t>Lamphere, Doris</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -512,6 +518,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1804,14 +1813,20 @@
     </row>
     <row r="10" ht="17" customHeight="1">
       <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
+      <c r="B10" t="s" s="37">
+        <v>9</v>
+      </c>
+      <c r="C10" s="38">
+        <v>861</v>
+      </c>
+      <c r="D10" t="s" s="37">
+        <v>10</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9BB47E-4F70-1044-A384-124B684467AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="19580" yWindow="920" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Judge Non-Availability Dates" sheetId="1" r:id="rId4"/>
+    <sheet name="Judge Non-Availability Dates" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Judge Non-Availability Dates</t>
-  </si>
-  <si>
-    <t>Judge Name</t>
-  </si>
-  <si>
-    <t>VLJ #</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Jones, Bernard</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Huels, Stuart</t>
   </si>
@@ -43,56 +31,51 @@
     <t>Lamphere, Doris</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Scheduled For</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>VLJ ID</t>
+  </si>
+  <si>
+    <t>VLJ</t>
+  </si>
+  <si>
+    <t>Hearings Scheduled</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>2 (1W200B)</t>
+  </si>
+  <si>
+    <t>1 of 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,62 +84,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="8"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -174,361 +112,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,27 +130,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff595959"/>
-      <rgbColor rgb="ffdaeef3"/>
-      <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FFDAEEF3"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -683,7 +334,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -692,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -701,7 +352,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -775,7 +426,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -783,7 +434,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -802,7 +453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,7 +483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,7 +509,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +639,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +665,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +691,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,9 +704,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1070,7 +727,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1078,7 +735,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1097,7 +754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +910,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,9 +1001,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1360,7 +1023,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1379,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1150,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1513,7 +1176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1539,7 +1202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +1228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1591,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1617,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1630,210 +1293,147 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8672" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5781" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8672" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8672" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="256" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.1" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44404</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s" s="8">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44404</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44404</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>861</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="10">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" ht="35.1" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="14">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="15">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16">
-        <v>43467</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" t="s" s="20">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="21">
-        <v>6</v>
-      </c>
-      <c r="D4" s="22">
-        <v>43498</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" t="s" s="20">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="21">
-        <v>6</v>
-      </c>
-      <c r="D5" s="22">
-        <v>43498</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" t="s" s="20">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s" s="21">
-        <v>6</v>
-      </c>
-      <c r="D6" s="22">
-        <v>43526</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" t="s" s="25">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s" s="26">
-        <v>6</v>
-      </c>
-      <c r="D7" s="27">
-        <v>43557</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" t="s" s="29">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="30">
-        <v>8</v>
-      </c>
-      <c r="D8" s="31">
-        <v>43204</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" t="s" s="33">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="34">
-        <v>8</v>
-      </c>
-      <c r="D9" s="35">
-        <v>43205</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" t="s" s="37">
-        <v>9</v>
-      </c>
-      <c r="C10" s="38">
-        <v>861</v>
-      </c>
-      <c r="D10" t="s" s="37">
-        <v>10</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9BB47E-4F70-1044-A384-124B684467AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A91B19-D410-5D4C-9D75-2506A9D408D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19580" yWindow="920" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Huels, Stuart</t>
-  </si>
-  <si>
-    <t>860</t>
   </si>
   <si>
     <t>Lamphere, Doris</t>
@@ -116,12 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,7 +1313,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1324,35 +1322,36 @@
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
     <col min="9" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -1364,20 +1363,20 @@
         <v>44404</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>860</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1389,20 +1388,20 @@
         <v>44404</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>860</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -1414,20 +1413,20 @@
         <v>44404</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
         <v>861</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2"/>
     </row>

--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A91B19-D410-5D4C-9D75-2506A9D408D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A1BDE-95F2-2A40-8EB4-3BD769E50277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19580" yWindow="920" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21220" yWindow="1940" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Judge Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A1BDE-95F2-2A40-8EB4-3BD769E50277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC8D00-CB3C-0F45-98D8-472B67BCC5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21220" yWindow="1940" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Huels, Stuart</t>
-  </si>
-  <si>
-    <t>Lamphere, Doris</t>
   </si>
   <si>
     <t>ID</t>
@@ -43,9 +40,6 @@
     <t>Room</t>
   </si>
   <si>
-    <t>VLJ ID</t>
-  </si>
-  <si>
     <t>VLJ</t>
   </si>
   <si>
@@ -60,16 +54,28 @@
   <si>
     <t>1 of 10</t>
   </si>
+  <si>
+    <t>BVAHUELS</t>
+  </si>
+  <si>
+    <t>CSS ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -113,13 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1310,15 +1317,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV4"/>
+  <dimension ref="A1:IV3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
@@ -1330,28 +1337,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -1363,20 +1370,20 @@
         <v>44404</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="5">
-        <v>860</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1388,47 +1395,22 @@
         <v>44404</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="5">
-        <v>860</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44404</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
-        <v>861</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spec/support/validJudgeSpreadsheet.xlsx
+++ b/spec/support/validJudgeSpreadsheet.xlsx
@@ -1,60 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC8D00-CB3C-0F45-98D8-472B67BCC5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="21220" yWindow="1940" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Judge Non-Availability Dates" sheetId="1" r:id="rId4"/>
+    <sheet name="Judge Non-Availability Dates" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Judge Non-Availability Dates</t>
-  </si>
-  <si>
-    <t>Judge Name</t>
-  </si>
-  <si>
-    <t>VLJ #</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Jones, Bernard</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Huels, Stuart</t>
   </si>
   <si>
-    <t>860</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>Lamphere, Doris</t>
+    <t>Scheduled For</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>VLJ</t>
+  </si>
+  <si>
+    <t>Hearings Scheduled</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>2 (1W200B)</t>
+  </si>
+  <si>
+    <t>1 of 10</t>
+  </si>
+  <si>
+    <t>BVAHUELS</t>
+  </si>
+  <si>
+    <t>CSS ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -63,36 +74,11 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="13"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,62 +87,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="8"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -174,361 +115,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,27 +135,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff595959"/>
-      <rgbColor rgb="ffdaeef3"/>
-      <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FFDAEEF3"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -683,7 +339,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -692,7 +348,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -701,7 +357,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -775,7 +431,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -783,7 +439,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -802,7 +458,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,7 +488,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,7 +514,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +540,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +566,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +592,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +618,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +670,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,9 +709,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1070,7 +732,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1078,7 +740,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1097,7 +759,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +785,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +811,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +837,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1201,7 +863,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,7 +889,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +915,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +941,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +967,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +993,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,9 +1006,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1360,7 +1028,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1379,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1513,7 +1181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1539,7 +1207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +1233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1591,7 +1259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1617,7 +1285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1630,210 +1298,123 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8672" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5781" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8672" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8672" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="256" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1" customWidth="1"/>
+    <col min="9" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.1" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44404</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="9">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="10">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" ht="35.1" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="14">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="15">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16">
-        <v>43467</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" t="s" s="20">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="21">
-        <v>6</v>
-      </c>
-      <c r="D4" s="22">
-        <v>43498</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" t="s" s="20">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="21">
-        <v>6</v>
-      </c>
-      <c r="D5" s="22">
-        <v>43498</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" t="s" s="20">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s" s="21">
-        <v>6</v>
-      </c>
-      <c r="D6" s="22">
-        <v>43526</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" t="s" s="25">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s" s="26">
-        <v>6</v>
-      </c>
-      <c r="D7" s="27">
-        <v>43557</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" t="s" s="29">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s" s="30">
+      <c r="B3" s="4">
+        <v>44404</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="31">
-        <v>43204</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" t="s" s="33">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="34">
-        <v>8</v>
-      </c>
-      <c r="D9" s="35">
-        <v>43205</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" t="s" s="37">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="38">
-        <v>861</v>
-      </c>
-      <c r="D10" t="s" s="37">
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
